--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1920,10 +1932,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1967,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2013,28 +2025,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2567,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2660,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3173,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3266,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3334,10 +3346,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3381,28 +3393,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3427,28 +3439,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3808,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3901,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4039,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4132,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4299,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4334,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4392,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4489,10 +4501,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4536,28 +4548,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4582,28 +4594,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4662,10 +4674,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4709,28 +4721,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4755,28 +4767,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4847,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4894,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4940,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5008,10 +5020,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5055,28 +5067,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5101,28 +5113,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5181,10 +5193,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5228,28 +5240,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5274,28 +5286,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5354,10 +5366,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5401,28 +5413,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5447,28 +5459,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5527,10 +5539,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5574,28 +5586,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5620,28 +5632,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5729,10 +5741,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5776,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5822,28 +5834,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5902,10 +5914,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5949,28 +5961,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5995,28 +6007,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6075,10 +6087,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6122,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6168,28 +6180,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6248,10 +6260,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6295,28 +6307,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6341,28 +6353,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6433,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6480,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6526,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6594,10 +6606,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6641,28 +6653,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6687,28 +6699,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6779,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6814,28 +6826,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6872,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6940,10 +6952,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6987,28 +6999,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7033,28 +7045,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7113,10 +7125,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7160,28 +7172,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7206,28 +7218,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7298,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7333,28 +7345,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7391,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7978,10 +7990,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8025,28 +8037,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8071,28 +8083,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8151,10 +8163,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8198,28 +8210,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8244,28 +8256,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8324,10 +8336,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8371,28 +8383,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8417,28 +8429,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8497,10 +8509,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8544,28 +8556,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8590,28 +8602,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8670,10 +8682,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8717,28 +8729,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8763,28 +8775,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8843,10 +8855,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8890,28 +8902,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8936,28 +8948,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9016,10 +9028,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9063,28 +9075,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9109,28 +9121,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9189,10 +9201,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9236,28 +9248,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9282,28 +9294,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9362,10 +9374,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9409,28 +9421,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9455,28 +9467,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9535,10 +9547,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9582,28 +9594,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9628,28 +9640,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9708,10 +9720,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9755,28 +9767,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9801,28 +9813,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9881,10 +9893,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9928,28 +9940,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9974,28 +9986,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10054,10 +10066,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10101,28 +10113,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10147,28 +10159,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10227,10 +10239,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10274,28 +10286,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10320,28 +10332,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10400,10 +10412,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10447,28 +10459,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10493,28 +10505,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10573,10 +10585,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="2" t="s">
+      <c r="J362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10620,28 +10632,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="2">
+      <c r="A364" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="2">
+      <c r="C364" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10666,28 +10678,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="2">
+      <c r="C366" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="2">
+      <c r="D366" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="2">
+      <c r="I366" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10746,10 +10758,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="2" t="s">
+      <c r="J368" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10793,28 +10805,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="2">
+      <c r="A370" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="2">
+      <c r="C370" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10839,28 +10851,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="2">
+      <c r="C372" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="2">
+      <c r="D372" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="2">
+      <c r="I372" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10919,10 +10931,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10966,28 +10978,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11012,28 +11024,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11092,10 +11104,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11139,28 +11151,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11185,28 +11197,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11265,10 +11277,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11312,28 +11324,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11358,28 +11370,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11438,10 +11450,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11485,28 +11497,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11531,28 +11543,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11611,10 +11623,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11658,28 +11670,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11704,28 +11716,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11784,10 +11796,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="2" t="s">
+      <c r="J404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11831,28 +11843,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="2">
+      <c r="A406" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="2">
+      <c r="C406" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11877,28 +11889,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="2">
+      <c r="C408" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="2">
+      <c r="D408" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="2">
+      <c r="I408" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11957,10 +11969,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12004,28 +12016,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12050,28 +12062,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12130,10 +12142,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12177,28 +12189,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12223,28 +12235,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12303,10 +12315,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12350,28 +12362,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12396,28 +12408,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12476,10 +12488,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12523,28 +12535,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12569,28 +12581,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12649,10 +12661,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="2" t="s">
+      <c r="J434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12696,28 +12708,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="2">
+      <c r="A436" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="2">
+      <c r="C436" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12742,28 +12754,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="2">
+      <c r="C438" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="2">
+      <c r="D438" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="2">
+      <c r="I438" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12822,10 +12834,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="2" t="s">
+      <c r="J440" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12869,28 +12881,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="2">
+      <c r="A442" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="2">
+      <c r="C442" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12915,28 +12927,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="2">
+      <c r="C444" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="2">
+      <c r="D444" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="2">
+      <c r="I444" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12995,10 +13007,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="2" t="s">
+      <c r="J446" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
